--- a/bigfinance-master/result/zhongli/year/2015_trade.xlsx
+++ b/bigfinance-master/result/zhongli/year/2015_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="17">
   <si>
     <t>code</t>
   </si>
@@ -37,9 +37,6 @@
     <t>000001.XSHE</t>
   </si>
   <si>
-    <t>000016.XSHE</t>
-  </si>
-  <si>
     <t>[1. 1. 1. 1. 1. 1. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0.]</t>
   </si>
@@ -48,11 +45,35 @@
   0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
   </si>
   <si>
+    <t>[-1. -1.  0.  0.  0. -1.  1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-1.  1.  0.  0.  0. -1.  1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
     <t>[ 1.  1.  0.  0.  0. -1.  1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
   0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
   </si>
   <si>
-    <t>[1. 1. 1. 1. 1. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+    <t>[1. 1. 1. 1. 0. 1. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  1.  1.  0. -1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  1.  1.  1. -1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  0.  1.  0. -1.  1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[1. 1. 0. 1. 0. 1. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0.]</t>
   </si>
 </sst>
@@ -411,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -462,10 +483,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>20150106</v>
+        <v>20150107</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -474,56 +495,56 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.72</v>
+        <v>15.48</v>
       </c>
       <c r="F3">
-        <v>672</v>
+        <v>1548</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>20150107</v>
+        <v>20150313</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.48</v>
+        <v>14.99</v>
       </c>
       <c r="F4">
-        <v>1548</v>
+        <v>1499</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>20150119</v>
+        <v>20150416</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>620</v>
+        <v>1700</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -531,22 +552,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>20150122</v>
+        <v>20150526</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.8</v>
+        <v>16.62</v>
       </c>
       <c r="F6">
-        <v>680</v>
+        <v>1662</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -554,22 +575,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>20150203</v>
+        <v>20150529</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>7.64</v>
+        <v>15.32</v>
       </c>
       <c r="F7">
-        <v>764</v>
+        <v>1532</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -577,22 +598,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>20150213</v>
+        <v>20150608</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.289999999999999</v>
+        <v>17.29</v>
       </c>
       <c r="F8">
-        <v>828.9999999999999</v>
+        <v>1729</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -600,22 +621,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>20150309</v>
+        <v>20150616</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>9.109999999999999</v>
+        <v>15.64</v>
       </c>
       <c r="F9">
-        <v>911</v>
+        <v>1564</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -623,22 +644,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>20150313</v>
+        <v>20151023</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.99</v>
+        <v>11.47</v>
       </c>
       <c r="F10">
-        <v>1499</v>
+        <v>1147</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -646,22 +667,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>20150416</v>
+        <v>20151103</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>11.05</v>
       </c>
       <c r="F11">
-        <v>1700</v>
+        <v>1105</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -669,22 +690,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>20160308</v>
+        <v>20151105</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.59</v>
+        <v>12.07</v>
       </c>
       <c r="F12">
-        <v>559</v>
+        <v>1207</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -692,22 +713,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>20160420</v>
+        <v>20151124</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>5.08</v>
+        <v>12.28</v>
       </c>
       <c r="F13">
-        <v>508</v>
+        <v>1228</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -715,22 +736,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>20190215</v>
+        <v>20151221</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.58</v>
+        <v>12.51</v>
       </c>
       <c r="F14">
-        <v>358</v>
+        <v>1251</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -738,24 +759,990 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>20190327</v>
+        <v>20151229</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>12.09</v>
+      </c>
+      <c r="F15">
+        <v>1209</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>20160318</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10.54</v>
+      </c>
+      <c r="F16">
+        <v>1054</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>20160408</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>10.57</v>
+      </c>
+      <c r="F17">
+        <v>1057</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>20160411</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10.72</v>
+      </c>
+      <c r="F18">
+        <v>1072</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>20160412</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10.67</v>
+      </c>
+      <c r="F19">
+        <v>1067</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>20160413</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10.81</v>
+      </c>
+      <c r="F20">
+        <v>1081</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20160420</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10.52</v>
+      </c>
+      <c r="F21">
+        <v>1052</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20160608</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10.5</v>
+      </c>
+      <c r="F22">
+        <v>1050</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>20160616</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>5.39</v>
-      </c>
-      <c r="F15">
-        <v>539</v>
-      </c>
-      <c r="G15">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8.57</v>
+      </c>
+      <c r="F23">
+        <v>857</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>20160811</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="F24">
+        <v>922.0000000000001</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>20160829</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>9.42</v>
+      </c>
+      <c r="F25">
+        <v>942</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>20161115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>9.23</v>
+      </c>
+      <c r="F26">
+        <v>923</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>20161207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>9.48</v>
+      </c>
+      <c r="F27">
+        <v>948</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>20170126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>9.33</v>
+      </c>
+      <c r="F28">
+        <v>933</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>20170301</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>9.49</v>
+      </c>
+      <c r="F29">
+        <v>949</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>20170601</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>9.19</v>
+      </c>
+      <c r="F30">
+        <v>919</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>20170616</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>9.02</v>
+      </c>
+      <c r="F31">
+        <v>902</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>20170620</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F32">
+        <v>911.9999999999999</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>20170727</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>10.59</v>
+      </c>
+      <c r="F33">
+        <v>1059</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>20170825</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>11.11</v>
+      </c>
+      <c r="F34">
+        <v>1111</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>20170913</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>11.43</v>
+      </c>
+      <c r="F35">
+        <v>1143</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>20171012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>11.55</v>
+      </c>
+      <c r="F36">
+        <v>1155</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>20171023</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>11.19</v>
+      </c>
+      <c r="F37">
+        <v>1119</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>20171108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>12.13</v>
+      </c>
+      <c r="F38">
+        <v>1213</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>20171127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>13.93</v>
+      </c>
+      <c r="F39">
+        <v>1393</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>20171226</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>13.66</v>
+      </c>
+      <c r="F40">
+        <v>1366</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>20171227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13.29</v>
+      </c>
+      <c r="F41">
+        <v>1329</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>20180102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>13.7</v>
+      </c>
+      <c r="F42">
+        <v>1370</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>20180103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>13.33</v>
+      </c>
+      <c r="F43">
+        <v>1333</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>20180115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>14.2</v>
+      </c>
+      <c r="F44">
+        <v>1420</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>20180129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>13.74</v>
+      </c>
+      <c r="F45">
+        <v>1374</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>20180824</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>10.03</v>
+      </c>
+      <c r="F46">
+        <v>1003</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>20180906</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F47">
+        <v>997.0000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>20180921</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>10.67</v>
+      </c>
+      <c r="F48">
+        <v>1067</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>20181011</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F49">
+        <v>986</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>20181024</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>11.04</v>
+      </c>
+      <c r="F50">
+        <v>1104</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>20181101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>10.83</v>
+      </c>
+      <c r="F51">
+        <v>1083</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>20181102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>11.09</v>
+      </c>
+      <c r="F52">
+        <v>1109</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>20181105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>10.92</v>
+      </c>
+      <c r="F53">
+        <v>1092</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>20190116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>10.48</v>
+      </c>
+      <c r="F54">
+        <v>1048</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>20190311</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>12.32</v>
+      </c>
+      <c r="F55">
+        <v>1232</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>20190402</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>13.36</v>
+      </c>
+      <c r="F56">
+        <v>1336</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>20190425</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>14.13</v>
+      </c>
+      <c r="F57">
+        <v>1413</v>
+      </c>
+      <c r="G57">
         <v>0</v>
       </c>
     </row>
